--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,9 +49,6 @@
     <t>negative</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -67,84 +64,84 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>kids</t>
+    <t>great</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>salad</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>wife</t>
   </si>
   <si>
-    <t>husband</t>
+    <t>sturdy</t>
   </si>
   <si>
     <t>rice</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>sturdy</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>pie</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
+    <t>comfortable</t>
+  </si>
+  <si>
     <t>bread</t>
   </si>
   <si>
@@ -160,100 +157,106 @@
     <t>popcorn</t>
   </si>
   <si>
+    <t>cooking</t>
+  </si>
+  <si>
     <t>years</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>cooking</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>exactly</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>quality</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
     <t>makes</t>
   </si>
   <si>
-    <t>clean</t>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>job</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>buy</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>really</t>
   </si>
   <si>
     <t>time</t>
@@ -623,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -692,13 +695,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3720930232558139</v>
+        <v>0.4341085271317829</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -710,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -734,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -742,13 +745,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3333333333333333</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -760,19 +763,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.956989247311828</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -784,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -792,13 +795,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.8828125</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L5">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,13 +821,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8498452012383901</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>549</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>549</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -836,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -844,13 +847,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.8560371517027864</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>553</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>553</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -862,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -870,13 +873,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.8478260869565217</v>
+        <v>0.8</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +899,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -914,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -922,13 +925,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7333333333333333</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -940,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -948,13 +951,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.7272727272727273</v>
+        <v>0.6983050847457627</v>
       </c>
       <c r="L11">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="M11">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -966,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -974,13 +977,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.7229437229437229</v>
+        <v>0.6926406926406926</v>
       </c>
       <c r="L12">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M12">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -992,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1000,7 +1003,7 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.704225352112676</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L13">
         <v>50</v>
@@ -1018,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1026,13 +1029,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6983050847457627</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L14">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1044,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1052,13 +1055,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.673469387755102</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L15">
-        <v>33</v>
+        <v>812</v>
       </c>
       <c r="M15">
-        <v>33</v>
+        <v>812</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1070,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1078,13 +1081,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.671875</v>
+        <v>0.640625</v>
       </c>
       <c r="L16">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1096,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1104,13 +1107,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6575342465753424</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L17">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1122,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1130,13 +1133,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6458333333333334</v>
+        <v>0.6171428571428571</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1148,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1156,13 +1159,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6412520064205457</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L19">
-        <v>799</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>799</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1174,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>447</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1182,13 +1185,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.6176470588235294</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1200,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1208,13 +1211,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.6142857142857143</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1226,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1237,10 +1240,10 @@
         <v>0.6</v>
       </c>
       <c r="L22">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1252,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1260,13 +1263,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5972222222222222</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L23">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M23">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1286,13 +1289,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5964912280701754</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1304,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1312,13 +1315,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5882352941176471</v>
+        <v>0.5748502994011976</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1330,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1338,13 +1341,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.5873015873015873</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1356,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1364,13 +1367,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.562874251497006</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L27">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="M27">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1382,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1390,13 +1393,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.5576923076923077</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="L28">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="M28">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1408,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1416,13 +1419,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.5538461538461539</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1434,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1442,13 +1445,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.5421686746987951</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="L30">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="M30">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1460,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1468,13 +1471,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.5230769230769231</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1486,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1494,13 +1497,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.4962406015037594</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1512,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1520,13 +1523,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.4957264957264957</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L33">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1538,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1546,13 +1549,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.4736842105263158</v>
+        <v>0.48</v>
       </c>
       <c r="L34">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="M34">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1564,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1572,13 +1575,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.47</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L35">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1590,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1598,13 +1601,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.4411764705882353</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1616,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>38</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1624,13 +1627,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.4397590361445783</v>
+        <v>0.4567901234567901</v>
       </c>
       <c r="L37">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="M37">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1642,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1650,13 +1653,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.4320987654320987</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L38">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M38">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1668,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1676,25 +1679,25 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.4078947368421053</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="L39">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M39">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1702,13 +1705,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.4046692607003891</v>
+        <v>0.4007782101167315</v>
       </c>
       <c r="L40">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M40">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1720,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1728,13 +1731,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.3897058823529412</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L41">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="M41">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1746,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>249</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1754,13 +1757,13 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.3873873873873874</v>
+        <v>0.3651960784313725</v>
       </c>
       <c r="L42">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="M42">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1772,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>68</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1780,13 +1783,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.3708609271523179</v>
+        <v>0.3520547945205479</v>
       </c>
       <c r="L43">
-        <v>56</v>
+        <v>257</v>
       </c>
       <c r="M43">
-        <v>56</v>
+        <v>257</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1798,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>95</v>
+        <v>473</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1806,13 +1809,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.3616438356164384</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="L44">
-        <v>264</v>
+        <v>47</v>
       </c>
       <c r="M44">
-        <v>264</v>
+        <v>47</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1824,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>466</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1832,13 +1835,13 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.3453237410071943</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="L45">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M45">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1850,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1858,13 +1861,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.3452380952380952</v>
+        <v>0.3110047846889952</v>
       </c>
       <c r="L46">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="M46">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1876,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>55</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1884,13 +1887,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.3333333333333333</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="L47">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M47">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1902,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1910,13 +1913,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.3308270676691729</v>
+        <v>0.2952380952380952</v>
       </c>
       <c r="L48">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M48">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1928,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1936,13 +1939,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.3014354066985646</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="L49">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="M49">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1954,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>146</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1962,13 +1965,13 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.2612612612612613</v>
+        <v>0.2626480086114101</v>
       </c>
       <c r="L50">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="M50">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1980,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>82</v>
+        <v>685</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1988,25 +1991,25 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.2508073196986007</v>
+        <v>0.2589285714285715</v>
       </c>
       <c r="L51">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="M51">
-        <v>233</v>
+        <v>30</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>696</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2014,13 +2017,13 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.2351097178683386</v>
+        <v>0.2582781456953642</v>
       </c>
       <c r="L52">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="M52">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2032,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>244</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2040,25 +2043,25 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.2340153452685422</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L53">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M53">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2066,13 +2069,13 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.2264900662251656</v>
+        <v>0.2214765100671141</v>
       </c>
       <c r="L54">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="M54">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2084,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>584</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2092,13 +2095,13 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.225609756097561</v>
+        <v>0.2198675496688742</v>
       </c>
       <c r="L55">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="M55">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2110,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>127</v>
+        <v>589</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2118,7 +2121,7 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.2214765100671141</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L56">
         <v>33</v>
@@ -2136,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2144,25 +2147,25 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.1864864864864865</v>
+        <v>0.1943573667711599</v>
       </c>
       <c r="L57">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M57">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="N57">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>301</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2170,25 +2173,25 @@
         <v>66</v>
       </c>
       <c r="K58">
-        <v>0.1751412429378531</v>
+        <v>0.1783783783783784</v>
       </c>
       <c r="L58">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="M58">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>146</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2196,13 +2199,13 @@
         <v>67</v>
       </c>
       <c r="K59">
-        <v>0.1742243436754177</v>
+        <v>0.1694510739856802</v>
       </c>
       <c r="L59">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M59">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2214,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2222,25 +2225,25 @@
         <v>68</v>
       </c>
       <c r="K60">
-        <v>0.1703703703703704</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L60">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="M60">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="N60">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>224</v>
+        <v>384</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2248,13 +2251,13 @@
         <v>69</v>
       </c>
       <c r="K61">
-        <v>0.1644736842105263</v>
+        <v>0.1576354679802956</v>
       </c>
       <c r="L61">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="M61">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2266,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>381</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2274,25 +2277,25 @@
         <v>70</v>
       </c>
       <c r="K62">
-        <v>0.1635687732342007</v>
+        <v>0.1549815498154982</v>
       </c>
       <c r="L62">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M62">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N62">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2300,13 +2303,13 @@
         <v>71</v>
       </c>
       <c r="K63">
-        <v>0.1590909090909091</v>
+        <v>0.1545454545454545</v>
       </c>
       <c r="L63">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M63">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2318,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2326,25 +2329,25 @@
         <v>72</v>
       </c>
       <c r="K64">
-        <v>0.1492537313432836</v>
+        <v>0.145985401459854</v>
       </c>
       <c r="L64">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M64">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="N64">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>171</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2352,13 +2355,13 @@
         <v>73</v>
       </c>
       <c r="K65">
-        <v>0.1313868613138686</v>
+        <v>0.134453781512605</v>
       </c>
       <c r="L65">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="M65">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2370,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>357</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2378,13 +2381,13 @@
         <v>74</v>
       </c>
       <c r="K66">
-        <v>0.1218487394957983</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L66">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M66">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2396,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>209</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2404,13 +2407,13 @@
         <v>75</v>
       </c>
       <c r="K67">
-        <v>0.1168384879725086</v>
+        <v>0.1330645161290323</v>
       </c>
       <c r="L67">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M67">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2422,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>257</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2430,25 +2433,25 @@
         <v>76</v>
       </c>
       <c r="K68">
-        <v>0.09379509379509379</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="L68">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="M68">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="N68">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>628</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2456,25 +2459,25 @@
         <v>77</v>
       </c>
       <c r="K69">
-        <v>0.08883248730964467</v>
+        <v>0.1068493150684932</v>
       </c>
       <c r="L69">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M69">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>359</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2482,25 +2485,25 @@
         <v>78</v>
       </c>
       <c r="K70">
-        <v>0.08582089552238806</v>
+        <v>0.1038353601496726</v>
       </c>
       <c r="L70">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="M70">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>980</v>
+        <v>958</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2508,25 +2511,25 @@
         <v>79</v>
       </c>
       <c r="K71">
-        <v>0.08469945355191257</v>
+        <v>0.08908045977011494</v>
       </c>
       <c r="L71">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="M71">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>335</v>
+        <v>634</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2534,25 +2537,25 @@
         <v>80</v>
       </c>
       <c r="K72">
-        <v>0.07578558225508318</v>
+        <v>0.08629441624365482</v>
       </c>
       <c r="L72">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M72">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N72">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>500</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2560,25 +2563,25 @@
         <v>81</v>
       </c>
       <c r="K73">
-        <v>0.06065857885615251</v>
+        <v>0.07011070110701106</v>
       </c>
       <c r="L73">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="M73">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="N73">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>1084</v>
+        <v>504</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2586,25 +2589,51 @@
         <v>82</v>
       </c>
       <c r="K74">
-        <v>0.05566218809980806</v>
+        <v>0.06336805555555555</v>
       </c>
       <c r="L74">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="M74">
+        <v>78</v>
+      </c>
+      <c r="N74">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O74">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K75">
+        <v>0.05791505791505792</v>
+      </c>
+      <c r="L75">
         <v>30</v>
       </c>
-      <c r="N74">
-        <v>0.97</v>
-      </c>
-      <c r="O74">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P74" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q74">
-        <v>492</v>
+      <c r="M75">
+        <v>34</v>
+      </c>
+      <c r="N75">
+        <v>0.88</v>
+      </c>
+      <c r="O75">
+        <v>0.12</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
